--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Hello World !</t>
+  </si>
+  <si>
+    <t>Hello Universe !</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,6 +370,11 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -20,7 +20,7 @@
     <t>Hello World !</t>
   </si>
   <si>
-    <t>Hello Universe !</t>
+    <t>Universes!</t>
   </si>
 </sst>
 </file>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,12 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Hello World !</t>
   </si>
   <si>
     <t>Universes!</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
   </si>
 </sst>
 </file>
@@ -359,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,14 +379,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Hello World !</t>
   </si>
@@ -23,16 +23,55 @@
     <t>Universes!</t>
   </si>
   <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>Value3</t>
-  </si>
-  <si>
-    <t>Value4</t>
+    <t>SR#</t>
+  </si>
+  <si>
+    <t>ACCOUNT#</t>
+  </si>
+  <si>
+    <t>ACCOUNT TYPE</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>AS PER LEDGER</t>
+  </si>
+  <si>
+    <t>AS PER BANK STATEMENT</t>
+  </si>
+  <si>
+    <t>AS PER CONFIRMATION</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>REMINDER 1</t>
+  </si>
+  <si>
+    <t>REMINDER 2</t>
+  </si>
+  <si>
+    <t>RECEIVED</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2021-03-08T06:52:17.000000Z</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-03-10T06:25:11.000000Z</t>
+  </si>
+  <si>
+    <t>2021-03-10T10:39:24.000000Z</t>
   </si>
 </sst>
 </file>
@@ -371,54 +410,175 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="5" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Hello World !</t>
   </si>
@@ -56,22 +56,16 @@
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>2020-06-06</t>
-  </si>
-  <si>
-    <t>2021-03-08T06:52:17.000000Z</t>
-  </si>
-  <si>
-    <t>2021-01-07</t>
-  </si>
-  <si>
-    <t>2021-01-13</t>
-  </si>
-  <si>
-    <t>2021-03-10T06:25:11.000000Z</t>
-  </si>
-  <si>
-    <t>2021-03-10T10:39:24.000000Z</t>
+    <t>curr</t>
+  </si>
+  <si>
+    <t>DHA 2</t>
+  </si>
+  <si>
+    <t>ABL</t>
+  </si>
+  <si>
+    <t>March 4, 2021</t>
   </si>
 </sst>
 </file>
@@ -410,7 +404,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,109 +470,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" t="s">
+    <row r="5" spans="1:12">
+      <c r="B5">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C5">
+        <v>2000.0</v>
+      </c>
+      <c r="F5">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="L20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
+      <c r="K5" t="s">
         <v>16</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -56,16 +56,16 @@
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>curr</t>
-  </si>
-  <si>
-    <t>DHA 2</t>
-  </si>
-  <si>
-    <t>ABL</t>
-  </si>
-  <si>
-    <t>March 4, 2021</t>
+    <t>cur</t>
+  </si>
+  <si>
+    <t>New Chali</t>
+  </si>
+  <si>
+    <t>HBL</t>
+  </si>
+  <si>
+    <t>March 2, 2021</t>
   </si>
 </sst>
 </file>
@@ -472,13 +472,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2000.0</v>
       </c>
       <c r="F5">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Hello World !</t>
   </si>
@@ -56,16 +56,28 @@
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>cur</t>
-  </si>
-  <si>
-    <t>New Chali</t>
+    <t>curr</t>
+  </si>
+  <si>
+    <t>DHA 2</t>
+  </si>
+  <si>
+    <t>ABL</t>
+  </si>
+  <si>
+    <t>March 4, 2021</t>
+  </si>
+  <si>
+    <t>sood</t>
+  </si>
+  <si>
+    <t>F.B.Area</t>
   </si>
   <si>
     <t>HBL</t>
   </si>
   <si>
-    <t>March 2, 2021</t>
+    <t>January 1, 2020</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,13 +484,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2000.0</v>
       </c>
       <c r="F5">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -491,6 +503,32 @@
       </c>
       <c r="K5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4000.0</v>
+      </c>
+      <c r="D6">
+        <v>6000.0</v>
+      </c>
+      <c r="F6">
+        <v>9999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Hello World !</t>
   </si>
@@ -26,12 +26,18 @@
     <t>SR#</t>
   </si>
   <si>
+    <t>BANK</t>
+  </si>
+  <si>
     <t>ACCOUNT#</t>
   </si>
   <si>
     <t>ACCOUNT TYPE</t>
   </si>
   <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
     <t>ADDRESS</t>
   </si>
   <si>
@@ -56,28 +62,16 @@
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>curr</t>
-  </si>
-  <si>
-    <t>DHA 2</t>
-  </si>
-  <si>
-    <t>ABL</t>
-  </si>
-  <si>
-    <t>March 4, 2021</t>
-  </si>
-  <si>
-    <t>sood</t>
-  </si>
-  <si>
-    <t>F.B.Area</t>
-  </si>
-  <si>
     <t>HBL</t>
   </si>
   <si>
-    <t>January 1, 2020</t>
+    <t>cur</t>
+  </si>
+  <si>
+    <t>New Chali</t>
+  </si>
+  <si>
+    <t>March 2, 2021</t>
   </si>
 </sst>
 </file>
@@ -416,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,17 +431,17 @@
     <col min="12" max="12" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -481,54 +475,34 @@
       <c r="L3" t="s">
         <v>12</v>
       </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
         <v>2000.0</v>
       </c>
-      <c r="F5">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
       <c r="K5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>4000.0</v>
-      </c>
-      <c r="D6">
-        <v>6000.0</v>
-      </c>
-      <c r="F6">
-        <v>9999</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
         <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Hello World !</t>
   </si>
@@ -62,16 +62,28 @@
     <t>RECEIVED</t>
   </si>
   <si>
+    <t>ABL</t>
+  </si>
+  <si>
+    <t>curr</t>
+  </si>
+  <si>
+    <t>DHA 2</t>
+  </si>
+  <si>
+    <t>March 4, 2021</t>
+  </si>
+  <si>
     <t>HBL</t>
   </si>
   <si>
-    <t>cur</t>
-  </si>
-  <si>
-    <t>New Chali</t>
-  </si>
-  <si>
-    <t>March 2, 2021</t>
+    <t>sood</t>
+  </si>
+  <si>
+    <t>F.B.Area</t>
+  </si>
+  <si>
+    <t>January 1, 2020</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,13 +496,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -503,6 +515,35 @@
       </c>
       <c r="K5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>9999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>4000.0</v>
+      </c>
+      <c r="I6">
+        <v>6000.0</v>
+      </c>
+      <c r="J6">
+        <v>9000.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,13 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>Hello World !</t>
-  </si>
-  <si>
-    <t>Universes!</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>SR#</t>
   </si>
@@ -50,13 +44,13 @@
     <t>AS PER CONFIRMATION</t>
   </si>
   <si>
-    <t>SENT</t>
-  </si>
-  <si>
-    <t>REMINDER 1</t>
-  </si>
-  <si>
-    <t>REMINDER 2</t>
+    <t>PREPARED</t>
+  </si>
+  <si>
+    <t>DISPATCH</t>
+  </si>
+  <si>
+    <t>REMINDER</t>
   </si>
   <si>
     <t>RECEIVED</t>
@@ -119,9 +113,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +425,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,65 +433,62 @@
     <col min="2" max="2" width="5" customWidth="true" style="0"/>
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="7" max="7" width="25" customWidth="true" style="0"/>
+    <col min="8" max="8" width="20" customWidth="true" style="0"/>
+    <col min="9" max="9" width="20" customWidth="true" style="0"/>
+    <col min="10" max="10" width="20" customWidth="true" style="0"/>
+    <col min="11" max="11" width="20" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+    <col min="13" max="13" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A1" s="1">
+        <v>25000</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -499,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>2000.0</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -522,16 +519,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>9999</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>4000.0</v>
@@ -543,7 +540,7 @@
         <v>9000.0</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>SR#</t>
   </si>
@@ -47,7 +47,7 @@
     <t>PREPARED</t>
   </si>
   <si>
-    <t>DISPATCH</t>
+    <t>DISPATCHED</t>
   </si>
   <si>
     <t>REMINDER</t>
@@ -56,28 +56,16 @@
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>ABL</t>
-  </si>
-  <si>
-    <t>curr</t>
-  </si>
-  <si>
-    <t>DHA 2</t>
-  </si>
-  <si>
-    <t>March 4, 2021</t>
-  </si>
-  <si>
     <t>HBL</t>
   </si>
   <si>
-    <t>sood</t>
-  </si>
-  <si>
-    <t>F.B.Area</t>
-  </si>
-  <si>
-    <t>January 1, 2020</t>
+    <t>cur</t>
+  </si>
+  <si>
+    <t>New Chali</t>
+  </si>
+  <si>
+    <t>March 2, 2021</t>
   </si>
 </sst>
 </file>
@@ -85,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -95,8 +83,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +103,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF484848"/>
+        <bgColor rgb="FF484848"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -113,15 +116,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,84 +428,80 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B3" sqref="B3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col min="8" max="8" width="17" customWidth="true" style="1"/>
+    <col min="9" max="9" width="17" customWidth="true" style="1"/>
+    <col min="10" max="10" width="17" customWidth="true" style="1"/>
+    <col min="1" max="1" width="10" customWidth="true" style="0"/>
     <col min="2" max="2" width="5" customWidth="true" style="0"/>
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" customWidth="true" style="0"/>
     <col min="7" max="7" width="25" customWidth="true" style="0"/>
-    <col min="8" max="8" width="20" customWidth="true" style="0"/>
-    <col min="9" max="9" width="20" customWidth="true" style="0"/>
-    <col min="10" max="10" width="20" customWidth="true" style="0"/>
     <col min="11" max="11" width="20" customWidth="true" style="0"/>
     <col min="12" max="12" width="20" customWidth="true" style="0"/>
     <col min="13" max="13" width="20" customWidth="true" style="0"/>
     <col min="14" max="14" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1">
-        <v>25000</v>
-      </c>
-    </row>
     <row r="3" spans="1:14">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -507,40 +509,11 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>2000.0</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>9999</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6">
-        <v>4000.0</v>
-      </c>
-      <c r="I6">
-        <v>6000.0</v>
-      </c>
-      <c r="J6">
-        <v>9000.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>SR#</t>
   </si>
@@ -56,16 +56,28 @@
     <t>RECEIVED</t>
   </si>
   <si>
+    <t>ABL</t>
+  </si>
+  <si>
+    <t>curr</t>
+  </si>
+  <si>
+    <t>DHA 2</t>
+  </si>
+  <si>
+    <t>March 4, 2021</t>
+  </si>
+  <si>
     <t>HBL</t>
   </si>
   <si>
-    <t>cur</t>
-  </si>
-  <si>
-    <t>New Chali</t>
-  </si>
-  <si>
-    <t>March 2, 2021</t>
+    <t>sood</t>
+  </si>
+  <si>
+    <t>F.B.Area</t>
+  </si>
+  <si>
+    <t>January 1, 2020</t>
   </si>
 </sst>
 </file>
@@ -110,13 +122,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thick">
+        <color rgb="FF484848"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF484848"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF484848"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF484848"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -128,6 +154,9 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,10 +457,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B3" sqref="B3:N3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,13 +524,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -514,6 +543,40 @@
       </c>
       <c r="K5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>9999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4000.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9000.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="H7" s="4">
+        <v>6000.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>SR#</t>
   </si>
@@ -56,28 +56,37 @@
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>ABL</t>
-  </si>
-  <si>
-    <t>curr</t>
-  </si>
-  <si>
-    <t>DHA 2</t>
-  </si>
-  <si>
-    <t>March 4, 2021</t>
-  </si>
-  <si>
-    <t>HBL</t>
-  </si>
-  <si>
-    <t>sood</t>
-  </si>
-  <si>
-    <t>F.B.Area</t>
-  </si>
-  <si>
-    <t>January 1, 2020</t>
+    <t>MCB</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Pkr</t>
+  </si>
+  <si>
+    <t>Clifton</t>
+  </si>
+  <si>
+    <t>April 12, 2021</t>
+  </si>
+  <si>
+    <t>April 16, 2021</t>
+  </si>
+  <si>
+    <t>April 10, 2021</t>
+  </si>
+  <si>
+    <t>Meezan bank</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>I.I Chundigar Road</t>
+  </si>
+  <si>
+    <t>April 13, 2021</t>
   </si>
 </sst>
 </file>
@@ -524,59 +533,80 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>10301</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
-        <v>2000.0</v>
+        <v>600.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>600.0</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>9999</v>
+        <v>10302</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
-        <v>4000.0</v>
+        <v>10500.0</v>
       </c>
       <c r="I6" s="1">
-        <v>6000.0</v>
+        <v>10500.0</v>
       </c>
       <c r="J6" s="1">
-        <v>9000.0</v>
+        <v>10500.0</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="H7" s="4">
-        <v>6000.0</v>
+        <v>11100.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>SR#</t>
   </si>
@@ -56,37 +56,82 @@
     <t>RECEIVED</t>
   </si>
   <si>
-    <t>MCB</t>
+    <t>JS BANK</t>
   </si>
   <si>
     <t>Current</t>
   </si>
   <si>
-    <t>Pkr</t>
-  </si>
-  <si>
-    <t>Clifton</t>
-  </si>
-  <si>
-    <t>April 12, 2021</t>
-  </si>
-  <si>
-    <t>April 16, 2021</t>
-  </si>
-  <si>
-    <t>April 10, 2021</t>
-  </si>
-  <si>
-    <t>Meezan bank</t>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>I.I Chundigar</t>
+  </si>
+  <si>
+    <t>May 5, 2021</t>
+  </si>
+  <si>
+    <t>May 30, 2021</t>
+  </si>
+  <si>
+    <t>May 29, 2021</t>
+  </si>
+  <si>
+    <t>May 31, 2021</t>
+  </si>
+  <si>
+    <t>MCB BANK</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
-    <t>I.I Chundigar Road</t>
-  </si>
-  <si>
-    <t>April 13, 2021</t>
+    <t>Sindh secretariat</t>
+  </si>
+  <si>
+    <t>May 14, 2021</t>
+  </si>
+  <si>
+    <t>May 13, 2021</t>
+  </si>
+  <si>
+    <t>May 15, 2021</t>
+  </si>
+  <si>
+    <t>HBL</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Keemari</t>
+  </si>
+  <si>
+    <t>May 21, 2021</t>
+  </si>
+  <si>
+    <t>May 20, 2021</t>
+  </si>
+  <si>
+    <t>May 22, 2021</t>
+  </si>
+  <si>
+    <t>NS Bank</t>
+  </si>
+  <si>
+    <t>SAving</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>SAddar</t>
+  </si>
+  <si>
+    <t>May 10, 2021</t>
   </si>
 </sst>
 </file>
@@ -466,10 +511,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -533,13 +578,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>10301</v>
+        <v>10101</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -551,13 +596,13 @@
         <v>16</v>
       </c>
       <c r="H5" s="1">
-        <v>600.0</v>
+        <v>10000.0</v>
       </c>
       <c r="I5" s="1">
-        <v>600.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J5" s="1">
-        <v>600.0</v>
+        <v>10000.0</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -566,47 +611,173 @@
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>10302</v>
+        <v>10102</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1">
-        <v>10500.0</v>
+        <v>20000.0</v>
       </c>
       <c r="I6" s="1">
-        <v>10500.0</v>
+        <v>20000.0</v>
       </c>
       <c r="J6" s="1">
-        <v>10500.0</v>
+        <v>20000.0</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="H7" s="4">
-        <v>11100.0</v>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>10103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>10104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1">
+        <v>9000.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>10106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="H10" s="4">
+        <v>49000.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>SR#</t>
   </si>
@@ -68,16 +68,10 @@
     <t>I.I Chundigar</t>
   </si>
   <si>
-    <t>May 5, 2021</t>
-  </si>
-  <si>
-    <t>May 30, 2021</t>
-  </si>
-  <si>
-    <t>May 29, 2021</t>
-  </si>
-  <si>
-    <t>May 31, 2021</t>
+    <t>May 11, 2021</t>
+  </si>
+  <si>
+    <t>May 14, 2021</t>
   </si>
   <si>
     <t>MCB BANK</t>
@@ -89,46 +83,10 @@
     <t>Sindh secretariat</t>
   </si>
   <si>
-    <t>May 14, 2021</t>
-  </si>
-  <si>
-    <t>May 13, 2021</t>
-  </si>
-  <si>
-    <t>May 15, 2021</t>
-  </si>
-  <si>
-    <t>HBL</t>
-  </si>
-  <si>
-    <t>Saving</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Keemari</t>
-  </si>
-  <si>
-    <t>May 21, 2021</t>
-  </si>
-  <si>
-    <t>May 20, 2021</t>
-  </si>
-  <si>
     <t>May 22, 2021</t>
   </si>
   <si>
-    <t>NS Bank</t>
-  </si>
-  <si>
-    <t>SAving</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>SAddar</t>
+    <t>May 9, 2021</t>
   </si>
   <si>
     <t>May 10, 2021</t>
@@ -511,10 +469,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,7 +536,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -596,33 +554,27 @@
         <v>16</v>
       </c>
       <c r="H5" s="1">
-        <v>10000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I5" s="1">
-        <v>10000.0</v>
+        <v>600.0</v>
       </c>
       <c r="J5" s="1">
-        <v>10000.0</v>
+        <v>600.0</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>10102</v>
@@ -631,153 +583,36 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4000.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4000.0</v>
+      </c>
+      <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1">
-        <v>20000.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>20000.0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>20000.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>24</v>
       </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>10103</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>10104</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9000.0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>90000.0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>90000.0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>10106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="H10" s="4">
-        <v>49000.0</v>
+      <c r="H7" s="4">
+        <v>4600.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>SR#</t>
   </si>
@@ -54,42 +54,6 @@
   </si>
   <si>
     <t>RECEIVED</t>
-  </si>
-  <si>
-    <t>JS BANK</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>PKR</t>
-  </si>
-  <si>
-    <t>I.I Chundigar</t>
-  </si>
-  <si>
-    <t>May 11, 2021</t>
-  </si>
-  <si>
-    <t>May 14, 2021</t>
-  </si>
-  <si>
-    <t>MCB BANK</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Sindh secretariat</t>
-  </si>
-  <si>
-    <t>May 22, 2021</t>
-  </si>
-  <si>
-    <t>May 9, 2021</t>
-  </si>
-  <si>
-    <t>May 10, 2021</t>
   </si>
 </sst>
 </file>
@@ -469,10 +433,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -535,84 +499,8 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>10101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>10102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="H7" s="4">
-        <v>4600.0</v>
+      <c r="H5" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>SR#</t>
   </si>
@@ -44,6 +44,9 @@
     <t>AS PER CONFIRMATION</t>
   </si>
   <si>
+    <t>DIFFERENCE</t>
+  </si>
+  <si>
     <t>PREPARED</t>
   </si>
   <si>
@@ -54,6 +57,48 @@
   </si>
   <si>
     <t>RECEIVED</t>
+  </si>
+  <si>
+    <t>MCB BANK</t>
+  </si>
+  <si>
+    <t>SAVING</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Clifton</t>
+  </si>
+  <si>
+    <t>May 17, 2021</t>
+  </si>
+  <si>
+    <t>January 6, 2021</t>
+  </si>
+  <si>
+    <t>December 14, 2021</t>
+  </si>
+  <si>
+    <t>June 20, 2021</t>
+  </si>
+  <si>
+    <t>MEEZAN BANK</t>
+  </si>
+  <si>
+    <t>ASAAN</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Saddar</t>
+  </si>
+  <si>
+    <t>ALBARAKA</t>
+  </si>
+  <si>
+    <t>Kemari</t>
   </si>
 </sst>
 </file>
@@ -433,10 +478,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,6 +489,7 @@
     <col min="8" max="8" width="17" customWidth="true" style="1"/>
     <col min="9" max="9" width="17" customWidth="true" style="1"/>
     <col min="10" max="10" width="17" customWidth="true" style="1"/>
+    <col min="11" max="11" width="20" customWidth="true" style="1"/>
     <col min="1" max="1" width="10" customWidth="true" style="0"/>
     <col min="2" max="2" width="5" customWidth="true" style="0"/>
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
@@ -451,13 +497,13 @@
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
     <col min="6" max="6" width="15" customWidth="true" style="0"/>
     <col min="7" max="7" width="25" customWidth="true" style="0"/>
-    <col min="11" max="11" width="20" customWidth="true" style="0"/>
     <col min="12" max="12" width="20" customWidth="true" style="0"/>
     <col min="13" max="13" width="20" customWidth="true" style="0"/>
     <col min="14" max="14" width="20" customWidth="true" style="0"/>
+    <col min="15" max="15" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,7 +531,7 @@
       <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -497,10 +543,127 @@
       <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="H5" s="4">
+    <row r="5" spans="1:15">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>10102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="K5" s="1">
         <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>10203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>10301</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9000.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>900.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9900.0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-9000.0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="H8" s="4">
+        <v>10600.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,7 +15,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+  <si>
+    <t>CLIENT:</t>
+  </si>
+  <si>
+    <t>OPTP</t>
+  </si>
+  <si>
+    <t>Prepared By:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>PERIOD:</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>Reviewed By:</t>
+  </si>
+  <si>
+    <t>SUBJECT:</t>
+  </si>
+  <si>
+    <t>Bank Confirmation Control Sheet</t>
+  </si>
   <si>
     <t>SR#</t>
   </si>
@@ -99,6 +126,15 @@
   </si>
   <si>
     <t>Kemari</t>
+  </si>
+  <si>
+    <t>SUMMIT BANK</t>
+  </si>
+  <si>
+    <t>DHA</t>
+  </si>
+  <si>
+    <t>May 18, 2021</t>
   </si>
 </sst>
 </file>
@@ -478,10 +514,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,166 +540,237 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15">
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5">
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
         <v>10102</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1">
         <v>1000.0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I9" s="1">
         <v>6000.0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J9" s="1">
         <v>6000.0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6">
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
         <v>10203</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>10301</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F11" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>6000.0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6000.0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>10301</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9000.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>900.0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9900.0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-9000.0</v>
+      </c>
+      <c r="L11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="1">
-        <v>9000.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>900.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>9900.0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-9000.0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="H8" s="4">
-        <v>10600.0</v>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>10204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10406.0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-10406.0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-15406.0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="H13" s="4">
+        <v>21006.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>CLIENT:</t>
   </si>
   <si>
-    <t>OPTP</t>
+    <t>MC  Donalds</t>
   </si>
   <si>
     <t>Prepared By:</t>
@@ -32,7 +32,7 @@
     <t>PERIOD:</t>
   </si>
   <si>
-    <t>2021-06-30</t>
+    <t>Jun 30 2022</t>
   </si>
   <si>
     <t>Reviewed By:</t>
@@ -92,59 +92,55 @@
     <t>SAVING</t>
   </si>
   <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>Clifton</t>
+  </si>
+  <si>
+    <t>May 17, 2021</t>
+  </si>
+  <si>
+    <t>MEEZAN BANK</t>
+  </si>
+  <si>
     <t>$</t>
   </si>
   <si>
-    <t>Clifton</t>
-  </si>
-  <si>
-    <t>May 17, 2021</t>
-  </si>
-  <si>
-    <t>January 6, 2021</t>
-  </si>
-  <si>
-    <t>December 14, 2021</t>
-  </si>
-  <si>
-    <t>June 20, 2021</t>
-  </si>
-  <si>
-    <t>MEEZAN BANK</t>
-  </si>
-  <si>
-    <t>ASAAN</t>
+    <t>Saddar</t>
+  </si>
+  <si>
+    <t>ALBARAKA</t>
+  </si>
+  <si>
+    <t>CURRENT</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>Saddar</t>
-  </si>
-  <si>
-    <t>ALBARAKA</t>
-  </si>
-  <si>
     <t>Kemari</t>
-  </si>
-  <si>
-    <t>SUMMIT BANK</t>
-  </si>
-  <si>
-    <t>DHA</t>
-  </si>
-  <si>
-    <t>May 18, 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -179,8 +175,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thick">
         <color rgb="FF484848"/>
@@ -199,20 +200,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="2" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -514,10 +524,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,94 +550,99 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15">
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L3" s="2"/>
       <c r="N3" t="s">
         <v>3</v>
       </c>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L4" s="2"/>
       <c r="N4" t="s">
         <v>3</v>
       </c>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9">
-        <v>10102</v>
+        <v>10201</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -639,60 +654,51 @@
         <v>26</v>
       </c>
       <c r="H9" s="1">
-        <v>1000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I9" s="1">
-        <v>6000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="J9" s="1">
-        <v>6000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>-1000.0</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>10203</v>
+        <v>10205</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1">
+        <v>-600.0</v>
+      </c>
+      <c r="I10" s="1">
         <v>600.0</v>
       </c>
-      <c r="I10" s="1">
-        <v>6000.0</v>
-      </c>
       <c r="J10" s="1">
-        <v>6000.0</v>
+        <v>-6000.0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>6600.0</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -700,81 +706,49 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>10301</v>
+        <v>10206</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1">
         <v>9000.0</v>
       </c>
       <c r="I11" s="1">
-        <v>900.0</v>
+        <v>5000.0</v>
       </c>
       <c r="J11" s="1">
-        <v>9900.0</v>
+        <v>4000.0</v>
       </c>
       <c r="K11" s="1">
-        <v>-9000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>10204</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10406.0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-10406.0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>-15406.0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="H13" s="4">
-        <v>21006.0</v>
+      <c r="H12" s="7">
+        <v>13400.0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="D5:E5"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>CLIENT:</t>
   </si>
   <si>
-    <t>MC  Donalds</t>
+    <t>OPTP</t>
   </si>
   <si>
     <t>Prepared By:</t>
@@ -32,7 +32,7 @@
     <t>PERIOD:</t>
   </si>
   <si>
-    <t>Jun 30 2022</t>
+    <t>Jun 30 2021</t>
   </si>
   <si>
     <t>Reviewed By:</t>
@@ -84,42 +84,6 @@
   </si>
   <si>
     <t>RECEIVED</t>
-  </si>
-  <si>
-    <t>MCB BANK</t>
-  </si>
-  <si>
-    <t>SAVING</t>
-  </si>
-  <si>
-    <t>PKR</t>
-  </si>
-  <si>
-    <t>Clifton</t>
-  </si>
-  <si>
-    <t>May 17, 2021</t>
-  </si>
-  <si>
-    <t>MEEZAN BANK</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>Saddar</t>
-  </si>
-  <si>
-    <t>ALBARAKA</t>
-  </si>
-  <si>
-    <t>CURRENT</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Kemari</t>
   </si>
 </sst>
 </file>
@@ -524,10 +488,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,113 +599,8 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>10201</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-1000.0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>10205</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-600.0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>600.0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-6000.0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>6600.0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>10206</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="1">
-        <v>9000.0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="H12" s="7">
-        <v>13400.0</v>
+      <c r="H9" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/hello world.xlsx
+++ b/public/hello world.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>CLIENT:</t>
   </si>
   <si>
-    <t>OPTP</t>
+    <t>Junaidi MArt</t>
   </si>
   <si>
     <t>Prepared By:</t>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>RECEIVED</t>
+  </si>
+  <si>
+    <t>ALBARAKA</t>
+  </si>
+  <si>
+    <t>SAVING</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Kemari</t>
+  </si>
+  <si>
+    <t>May 27, 2021</t>
+  </si>
+  <si>
+    <t>SUMMIT BANK</t>
+  </si>
+  <si>
+    <t>DHA</t>
+  </si>
+  <si>
+    <t>May 28, 2021</t>
   </si>
 </sst>
 </file>
@@ -488,10 +512,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -599,8 +623,66 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="H9" s="7">
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>10601</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50000.0</v>
+      </c>
+      <c r="K9" s="1">
         <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1">
+        <v>500000.0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="H11" s="7">
+        <v>550000.0</v>
       </c>
     </row>
   </sheetData>
